--- a/static/company.xlsx
+++ b/static/company.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shortname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拼音</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -41,10 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电话</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -65,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>contact</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传真</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>状态（0正常1停用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -523,49 +523,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
